--- a/assets/biocount-template.xlsx
+++ b/assets/biocount-template.xlsx
@@ -5,16 +5,32 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://4liferesearch-my.sharepoint.com/personal/douglasg_4life_com/Documents/Desktop/Projects/ISE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgard\Downloads\ISE-Project\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71BAD89D-6538-4CFF-B8C6-79BAD093A89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3990A075-229C-4A20-B62A-8B078290DA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7498D8F4-88D9-4E80-ACC4-39B418B94F8F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7498D8F4-88D9-4E80-ACC4-39B418B94F8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="DilutionCoeff_B18">Sheet1!$B$18</definedName>
+    <definedName name="DilutionDenom_C18">Sheet1!$C$18</definedName>
+    <definedName name="Exponent_P10">Sheet1!$P$10</definedName>
+    <definedName name="FillWeight_g_J11">Sheet1!$J$11</definedName>
+    <definedName name="Offset_P10">Sheet1!$S$11</definedName>
+    <definedName name="Output">Sheet1!$J$15</definedName>
+    <definedName name="Output_Adjusted_CFU_per_g">Sheet1!$L$15</definedName>
+    <definedName name="Output_CFU_per_mL">Sheet1!$J$15</definedName>
+    <definedName name="Output_Sample_CFU_per_g">Sheet1!$K$15</definedName>
+    <definedName name="RequiredSpecCoeff_C35">Sheet1!$C$35</definedName>
+    <definedName name="TOU_Active_1">Sheet1!$D$18</definedName>
+    <definedName name="TOU_Active_2">Sheet1!$D$19</definedName>
+    <definedName name="TOU_Active_3">Sheet1!$D$20</definedName>
+    <definedName name="TOU_Active_4">Sheet1!$D$21</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
   <si>
     <t>Microbial Growth Curve - Bacterial</t>
   </si>
@@ -228,6 +244,9 @@
   </si>
   <si>
     <t>End of Assay</t>
+  </si>
+  <si>
+    <t>GPT SAID</t>
   </si>
 </sst>
 </file>
@@ -479,17 +498,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -497,9 +510,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -511,31 +521,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -551,222 +540,258 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1111,1178 +1136,1230 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D293A2-0DB7-4242-9977-9022956F4ACC}">
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15:J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="101"/>
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="3">
         <f>(D19-D18)/10</f>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <f>0.5*A4</f>
         <v>366.25</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>1.25E-3</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <f t="shared" ref="C3:D5" si="0">0.5*C4</f>
         <v>12500</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <f t="shared" si="0"/>
         <v>1.25E-4</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8" t="s">
+      <c r="F3" s="89"/>
+      <c r="G3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="6">
         <v>100000</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="5">
         <v>2930</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="5">
         <v>1E-3</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="5">
         <v>4890</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="5">
         <v>1960</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="3">
         <f>(D20-D19)/10</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <f>0.5*A5</f>
         <v>732.5</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="7">
         <f>0.5*B5</f>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="8" t="s">
+      <c r="F4" s="91"/>
+      <c r="G4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="9">
         <f>SLOPE(B3:B9,C3:C9)</f>
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="5">
         <f>SLOPE(A3:A9,C3:C9)</f>
         <v>2.9299999999999996E-2</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="9">
         <f>SLOPE(C3:C9,D3:D9)</f>
         <v>99999999.99999997</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="5">
         <v>4.8899999999999999E-2</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="5">
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="3">
         <f>(D21-D20)/4.1</f>
-        <v>0.24390243902439027</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+        <v>2.4390243902439028</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <f>0.5*A6</f>
         <v>1465</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="7">
         <f>0.5*B6</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <f>0.5*C6</f>
         <v>50000</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="8" t="s">
+      <c r="F5" s="102"/>
+      <c r="G5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="10">
         <f>INTERCEPT(B3:B9,C3:C9)</f>
         <v>1.7347234759768071E-18</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="10">
         <f>INTERCEPT(A3:A9,C3:C9)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="5">
         <f>INTERCEPT(C3:C9,D3:D9)</f>
         <v>2.9103830456733704E-11</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="10">
         <f>INTERCEPT(A3:A9,C3:C9)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="10">
         <f>INTERCEPT(A3:A9,C3:C9)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <f>I3</f>
         <v>2930</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="7">
         <v>0.01</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <f>H3</f>
         <v>100000</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>1E-3</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="8" t="s">
+      <c r="F6" s="99"/>
+      <c r="G6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="10">
         <f>RSQ(B3:B9,C3:C9)</f>
         <v>0.99999999999999978</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="10">
         <f>RSQ(A3:A9,C3:C9)</f>
         <v>0.99999999999999978</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="10">
         <f>RSQ(C3:C9,D3:D9)</f>
         <v>0.99999999999999956</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="10">
         <f>RSQ(A3:A9,C3:C9)</f>
         <v>0.99999999999999978</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="10">
         <f>RSQ(B3:B9,D3:D9)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <f>I3</f>
         <v>2930</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="7">
         <v>0.01</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <f>H3</f>
         <v>100000</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>1E-3</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="E7" s="88"/>
+      <c r="F7" s="89"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <f>I3</f>
         <v>2930</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="7">
         <v>0.01</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <f>H3</f>
         <v>100000</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>1E-3</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="E8" s="90"/>
+      <c r="F8" s="91"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <f>2*A6</f>
         <v>5860</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="7">
         <f>2*B6</f>
         <v>0.02</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <f>2*C6</f>
         <v>200000</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <f>2*D6</f>
         <v>2E-3</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="11"/>
-      <c r="L9" s="18" t="s">
+      <c r="E9" s="90"/>
+      <c r="F9" s="91"/>
+      <c r="L9" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="20"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="L10" s="22">
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="94"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="L10" s="12">
         <f>I15</f>
-        <v>0.83546727815726129</v>
-      </c>
-      <c r="M10" s="23">
+        <v>1.2788731659084325</v>
+      </c>
+      <c r="M10" s="13">
         <f>(LOG(L10))</f>
-        <v>-7.807055497947947E-2</v>
-      </c>
-      <c r="N10" s="22">
+        <v>0.1068274748324617</v>
+      </c>
+      <c r="N10" s="12">
         <f>J30</f>
-        <v>3.5561636776282688</v>
-      </c>
-      <c r="O10" s="23">
+        <v>2.5868829698577569</v>
+      </c>
+      <c r="O10" s="13">
         <f>LOG(N10)</f>
-        <v>0.55098174179616932</v>
-      </c>
-      <c r="P10" s="24">
+        <v>0.4127767817530163</v>
+      </c>
+      <c r="P10" s="14">
         <f>ROUND(ABS(M10-O10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="S10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="95"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="29">
-        <v>1</v>
-      </c>
-      <c r="K11" s="30"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="K11" s="19"/>
+      <c r="S11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>0</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="96">
         <f>B18</f>
-        <v>1E-3</v>
-      </c>
-      <c r="C12" s="32">
+        <v>0.01</v>
+      </c>
+      <c r="C12" s="97">
         <f>C18</f>
-        <v>1000</v>
-      </c>
-      <c r="D12" s="33">
+        <v>100</v>
+      </c>
+      <c r="D12" s="20">
         <f>B38/0.1</f>
-        <v>7.5500000000000003E-3</v>
-      </c>
-      <c r="E12" s="34">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E12" s="21">
         <f>(((D12-H5)/H4)*(C12*B12))/14.65</f>
-        <v>5153.5836177474393</v>
-      </c>
-      <c r="F12" s="35">
+        <v>341.29692832764385</v>
+      </c>
+      <c r="F12" s="74">
         <f>E12-E12</f>
         <v>0</v>
       </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="39" t="s">
+      <c r="G12" s="74"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="O12" s="40"/>
-      <c r="P12" s="41"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="O12" s="98"/>
+      <c r="P12" s="72"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33">
+      <c r="B13" s="96"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="20">
         <f>B39/0.1</f>
-        <v>9.2000000000000016E-3</v>
-      </c>
-      <c r="E13" s="34">
+        <v>1E-3</v>
+      </c>
+      <c r="E13" s="21">
         <f>(((D13-H5)/H4)*(C12*B12))/14.65</f>
-        <v>6279.8634812286691</v>
-      </c>
-      <c r="F13" s="35">
+        <v>682.59385665528896</v>
+      </c>
+      <c r="F13" s="74">
         <f>E13-E12</f>
-        <v>1126.2798634812298</v>
-      </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="N13" s="26" t="s">
+        <v>341.29692832764511</v>
+      </c>
+      <c r="G13" s="74"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="N13" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="O13" s="43" t="s">
+      <c r="O13" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="P13" s="26" t="s">
+      <c r="P13" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
+    <row r="14" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
         <v>20</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="44">
+      <c r="B14" s="96"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="27">
         <f>B40/0.1</f>
-        <v>9.4500000000000001E-3</v>
-      </c>
-      <c r="E14" s="45">
+        <v>1.4999999999999998E-3</v>
+      </c>
+      <c r="E14" s="28">
         <f>(((D14-H5)/H4)*(C12*B12))/14.65</f>
-        <v>6450.5119453924899</v>
-      </c>
-      <c r="F14" s="46">
+        <v>1023.8907849829338</v>
+      </c>
+      <c r="F14" s="70">
         <f>E14-E13</f>
-        <v>170.64846416382079</v>
-      </c>
-      <c r="G14" s="46"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="47" t="s">
+        <v>341.29692832764488</v>
+      </c>
+      <c r="G14" s="70"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="48" t="s">
+      <c r="J14" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="48" t="s">
+      <c r="K14" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="L14" s="48" t="s">
+      <c r="L14" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="N14" s="49">
+      <c r="N14" s="31">
         <v>135</v>
       </c>
-      <c r="O14" s="50">
+      <c r="O14" s="32">
         <v>5</v>
       </c>
-      <c r="P14" s="51">
+      <c r="P14" s="33">
         <f>AVERAGE(N17,O17,P17)</f>
-        <v>-112.63999866297713</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+        <v>879.99998955450894</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>24</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33">
+      <c r="B15" s="96"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="20">
         <f>B41/0.1</f>
-        <v>9.4999999999999998E-3</v>
-      </c>
-      <c r="E15" s="34">
+        <v>2E-3</v>
+      </c>
+      <c r="E15" s="21">
         <f>(((D15-H5)/H4)*(C12*B12))/14.65</f>
-        <v>6484.6416382252546</v>
-      </c>
-      <c r="F15" s="35">
+        <v>1365.1877133105793</v>
+      </c>
+      <c r="F15" s="74">
         <f>E15-E14</f>
-        <v>34.129692832764704</v>
-      </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="52">
+        <v>341.29692832764545</v>
+      </c>
+      <c r="G15" s="74"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="75">
         <f>AVERAGE(F18,F24,F30)</f>
-        <v>0.83546727815726129</v>
-      </c>
-      <c r="J15" s="53">
+        <v>1.2788731659084325</v>
+      </c>
+      <c r="J15" s="77">
         <f>(I15*C18)</f>
-        <v>835.46727815726126</v>
-      </c>
-      <c r="K15" s="53">
+        <v>127.88731659084324</v>
+      </c>
+      <c r="K15" s="85">
         <f>(J15/POWER(10,P10))*J11</f>
-        <v>83.546727815726129</v>
-      </c>
-      <c r="L15" s="53">
+        <v>127.88731659084324</v>
+      </c>
+      <c r="L15" s="86">
         <f>IF(I15&gt;=ROUND(LOG(J30),0),K15/10,K15)</f>
-        <v>83.546727815726129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="2" t="s">
+        <v>12.788731659084323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="87"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="O16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="P16" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="56" t="s">
+      <c r="F17" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="57"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="45">
+      <c r="G17" s="54"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="28">
         <f>(($N$14-$D$18)/$O$14)*(1/I4)</f>
-        <v>-109.21501706484645</v>
-      </c>
-      <c r="O17" s="45">
+        <v>853.24232081911282</v>
+      </c>
+      <c r="O17" s="28">
         <f>(($N$14-$D$18)/$O$14)*(1/L4)</f>
-        <v>-163.265306122449</v>
-      </c>
-      <c r="P17" s="45">
+        <v>1275.5102040816328</v>
+      </c>
+      <c r="P17" s="28">
         <f>(($N$14-$D$18)/$O$14)*(1/K4)</f>
-        <v>-65.439672801635993</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+        <v>511.24744376278119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>0</v>
       </c>
-      <c r="B18" s="59">
-        <v>1E-3</v>
-      </c>
-      <c r="C18" s="60">
-        <v>1000</v>
-      </c>
-      <c r="D18" s="61">
-        <v>151</v>
-      </c>
-      <c r="E18" s="34">
+      <c r="B18" s="78">
+        <v>0.01</v>
+      </c>
+      <c r="C18" s="81">
+        <v>100</v>
+      </c>
+      <c r="D18" s="36">
+        <v>10</v>
+      </c>
+      <c r="E18" s="21">
         <f>(((D18-I5)/I4)*(C35/C18))/7850</f>
-        <v>0.65650746722897335</v>
-      </c>
-      <c r="F18" s="62">
+        <v>0.43477315710528042</v>
+      </c>
+      <c r="F18" s="63">
         <f>AVERAGE(E19:E21)</f>
-        <v>0.81006369073277495</v>
-      </c>
-      <c r="G18" s="63"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="M18" s="36"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="26">
+        <v>1.2399871830287186</v>
+      </c>
+      <c r="G18" s="64"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="M18" s="22"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
         <v>10</v>
       </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="67">
-        <v>184</v>
-      </c>
-      <c r="E19" s="45">
+      <c r="B19" s="79"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="38">
+        <v>20</v>
+      </c>
+      <c r="E19" s="28">
         <f>(((D19-N2)/I4)*(C35/C18))/7850</f>
-        <v>0.78563509488924166</v>
-      </c>
-      <c r="F19" s="68"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="64"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="26">
+        <v>0.82606899850003279</v>
+      </c>
+      <c r="F19" s="65"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="37"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="16">
         <v>20</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="67">
-        <v>189</v>
-      </c>
-      <c r="E20" s="45">
+      <c r="B20" s="79"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="38">
+        <v>30</v>
+      </c>
+      <c r="E20" s="28">
         <f>(((D20-N3)/I4)*(C35/C18))/7850</f>
-        <v>0.81954740114345359</v>
-      </c>
-      <c r="F20" s="68"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+        <v>1.2608421556053131</v>
+      </c>
+      <c r="F20" s="65"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>24</v>
       </c>
-      <c r="B21" s="70"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="61">
-        <v>190</v>
-      </c>
-      <c r="E21" s="34">
+      <c r="B21" s="80"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="36">
+        <v>40</v>
+      </c>
+      <c r="E21" s="21">
         <f>(((D21-N4)/I4)*(C35/C18))/7850</f>
-        <v>0.82500857616562961</v>
-      </c>
-      <c r="F21" s="72"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="74" t="s">
+        <v>1.6330503949808095</v>
+      </c>
+      <c r="F21" s="67"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="74"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
-      <c r="N21" s="2" t="s">
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="84"/>
+      <c r="N21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="O21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="P21" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="75"/>
-      <c r="B22" s="76"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="77"/>
-      <c r="I22" s="2" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="50"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="52"/>
+      <c r="I22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N22" s="45">
+      <c r="N22" s="28">
         <f>((I23-$D$18)/J23)*(1/$I$4)</f>
         <v>0</v>
       </c>
-      <c r="O22" s="45">
+      <c r="O22" s="28">
         <f>((I23-$D$18)/J23)*(1/$L$4)</f>
         <v>0</v>
       </c>
-      <c r="P22" s="45">
+      <c r="P22" s="28">
         <f>((I23-$D$18)/J23)*(1/$K$4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="56" t="s">
+      <c r="F23" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="57"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="33">
+      <c r="G23" s="54"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="20">
         <f>D18</f>
-        <v>151</v>
-      </c>
-      <c r="J23" s="78">
+        <v>10</v>
+      </c>
+      <c r="J23" s="34">
         <v>0.1</v>
       </c>
-      <c r="K23" s="79">
+      <c r="K23" s="39">
         <v>1</v>
       </c>
-      <c r="L23" s="23">
+      <c r="L23" s="13">
         <f>(LOG(E12)-LOG(K23))</f>
-        <v>3.7121093269390597</v>
-      </c>
-      <c r="N23" s="45">
+        <v>2.5331323796458891</v>
+      </c>
+      <c r="N23" s="28">
         <f>((I24-$D$18)/J24)*(1/$I$4)</f>
-        <v>112.62798634812289</v>
-      </c>
-      <c r="O23" s="45">
+        <v>34.129692832764512</v>
+      </c>
+      <c r="O23" s="28">
         <f>((I24-$D$18)/J24)*(1/$L$4)</f>
-        <v>168.36734693877551</v>
-      </c>
-      <c r="P23" s="45">
+        <v>51.020408163265309</v>
+      </c>
+      <c r="P23" s="28">
         <f>((I24-$D$18)/J24)*(1/$K$4)</f>
-        <v>67.484662576687114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+        <v>20.449897750511248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>0</v>
       </c>
-      <c r="B24" s="80">
+      <c r="B24" s="57">
         <f>B18</f>
-        <v>1E-3</v>
-      </c>
-      <c r="C24" s="81">
+        <v>0.01</v>
+      </c>
+      <c r="C24" s="60">
         <f>C18</f>
+        <v>100</v>
+      </c>
+      <c r="D24" s="27">
+        <f>D18</f>
+        <v>10</v>
+      </c>
+      <c r="E24" s="28">
+        <f>(((D24-L5)/L4)*(C35/C24))/7850</f>
+        <v>0.64994150526452621</v>
+      </c>
+      <c r="F24" s="63">
+        <f>AVERAGE(E25:E27)</f>
+        <v>1.8536543093235431</v>
+      </c>
+      <c r="G24" s="64"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="20">
+        <f>D19</f>
+        <v>20</v>
+      </c>
+      <c r="J24" s="34">
+        <v>10</v>
+      </c>
+      <c r="K24" s="39">
+        <f>AVERAGE(N23,O23,P23)</f>
+        <v>35.199999582180361</v>
+      </c>
+      <c r="L24" s="13">
+        <f>(LOG(E13)-LOG(K24))</f>
+        <v>1.2876197169867616</v>
+      </c>
+      <c r="N24" s="28">
+        <f>((I25-$D$18)/J25)*(1/$I$4)</f>
+        <v>34.129692832764512</v>
+      </c>
+      <c r="O24" s="28">
+        <f>((I25-$D$18)/J25)*(1/$L$4)</f>
+        <v>51.020408163265309</v>
+      </c>
+      <c r="P24" s="28">
+        <f>((I25-$D$18)/J25)*(1/$K$4)</f>
+        <v>20.449897750511248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>10</v>
+      </c>
+      <c r="B25" s="58"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="27">
+        <f>D19</f>
+        <v>20</v>
+      </c>
+      <c r="E25" s="28">
+        <f>(((D25-N2)/L4)*(C35/C24))/7850</f>
+        <v>1.2348888600025998</v>
+      </c>
+      <c r="F25" s="65"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="20">
+        <f>D20</f>
+        <v>30</v>
+      </c>
+      <c r="J25" s="34">
+        <v>20</v>
+      </c>
+      <c r="K25" s="39">
+        <f>AVERAGE(N24,O24,P24)</f>
+        <v>35.199999582180361</v>
+      </c>
+      <c r="L25" s="13">
+        <f>(LOG(E14)-LOG(K25))</f>
+        <v>1.4637109760424434</v>
+      </c>
+      <c r="N25" s="28">
+        <f>((I26-$D$18)/J26)*(1/$I$4)</f>
+        <v>42.662116040955638</v>
+      </c>
+      <c r="O25" s="28">
+        <f>((I26-$D$18)/J26)*(1/$L$4)</f>
+        <v>63.775510204081634</v>
+      </c>
+      <c r="P25" s="28">
+        <f>((I26-$D$18)/J26)*(1/$K$4)</f>
+        <v>25.562372188139058</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>20</v>
+      </c>
+      <c r="B26" s="58"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="20">
+        <f>D20</f>
+        <v>30</v>
+      </c>
+      <c r="E26" s="21">
+        <f>(((D26-N3)/L4)*(C35/C24))/7850</f>
+        <v>1.8848303652671261</v>
+      </c>
+      <c r="F26" s="65"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="20">
+        <f>D21</f>
+        <v>40</v>
+      </c>
+      <c r="J26" s="34">
+        <v>24</v>
+      </c>
+      <c r="K26" s="39">
+        <f>AVERAGE(N25,O25,P25)</f>
+        <v>43.999999477725446</v>
+      </c>
+      <c r="L26" s="13">
+        <f>(LOG(E15)-LOG(K26))</f>
+        <v>1.4917396996426868</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" s="59"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="20">
+        <f>D21</f>
+        <v>40</v>
+      </c>
+      <c r="E27" s="21">
+        <f>(((D27-N4)/L4)*(C35/C24))/7850</f>
+        <v>2.4412437027009033</v>
+      </c>
+      <c r="F27" s="67"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="37"/>
+      <c r="N27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="73"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="J28" s="72"/>
+      <c r="K28" s="55">
+        <f>AVERAGE(L23:L26)</f>
+        <v>1.6940506930794452</v>
+      </c>
+      <c r="L28" s="56"/>
+      <c r="N28" s="22">
+        <f t="shared" ref="N28:N33" si="1">$K$15/O28</f>
+        <v>127.88731659084324</v>
+      </c>
+      <c r="O28" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="54"/>
+      <c r="H29" s="8"/>
+      <c r="N29" s="22">
+        <f t="shared" si="1"/>
+        <v>12.788731659084323</v>
+      </c>
+      <c r="O29" s="40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>0</v>
+      </c>
+      <c r="B30" s="57">
+        <f>B18</f>
+        <v>0.01</v>
+      </c>
+      <c r="C30" s="60">
+        <f>C18</f>
+        <v>100</v>
+      </c>
+      <c r="D30" s="20">
+        <f>D18</f>
+        <v>10</v>
+      </c>
+      <c r="E30" s="21">
+        <f>(((D30-K5)/K4)*(C35/C30))/7850</f>
+        <v>0.26050825159886942</v>
+      </c>
+      <c r="F30" s="63">
+        <f>AVERAGE(E31:E33)</f>
+        <v>0.7429780053730356</v>
+      </c>
+      <c r="G30" s="64"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" s="70">
+        <f>(J15/POWER(10,K28))</f>
+        <v>2.5868829698577569</v>
+      </c>
+      <c r="N30" s="22">
+        <f t="shared" si="1"/>
+        <v>1.2788731659084325</v>
+      </c>
+      <c r="O30" s="40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>10</v>
+      </c>
+      <c r="B31" s="58"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="20">
+        <f>D19</f>
+        <v>20</v>
+      </c>
+      <c r="E31" s="21">
+        <f>(((D31-N2)/K4)*(C35/C30))/7850</f>
+        <v>0.49496567803785185</v>
+      </c>
+      <c r="F31" s="65"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="70"/>
+      <c r="N31" s="22">
+        <f t="shared" si="1"/>
+        <v>0.12788731659084324</v>
+      </c>
+      <c r="O31" s="40">
         <v>1000</v>
       </c>
-      <c r="D24" s="44">
-        <f>D18</f>
-        <v>151</v>
-      </c>
-      <c r="E24" s="45">
-        <f>(((D24-L5)/L4)*(C35/C24))/7850</f>
-        <v>0.98141167294943454</v>
-      </c>
-      <c r="F24" s="62">
-        <f>AVERAGE(E25:E27)</f>
-        <v>1.2109625580852195</v>
-      </c>
-      <c r="G24" s="63"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="33">
-        <f>D19</f>
-        <v>184</v>
-      </c>
-      <c r="J24" s="78">
-        <v>10</v>
-      </c>
-      <c r="K24" s="79">
-        <f>AVERAGE(N23,O23,P23)</f>
-        <v>116.15999862119519</v>
-      </c>
-      <c r="L24" s="23">
-        <f>(LOG(E13)-LOG(K24))</f>
-        <v>1.7328936044544299</v>
-      </c>
-      <c r="N24" s="45">
-        <f>((I25-$D$18)/J25)*(1/$I$4)</f>
-        <v>64.846416382252571</v>
-      </c>
-      <c r="O24" s="45">
-        <f>((I25-$D$18)/J25)*(1/$L$4)</f>
-        <v>96.938775510204081</v>
-      </c>
-      <c r="P24" s="45">
-        <f>((I25-$D$18)/J25)*(1/$K$4)</f>
-        <v>38.854805725971367</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>10</v>
-      </c>
-      <c r="B25" s="82"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="44">
-        <f>D19</f>
-        <v>184</v>
-      </c>
-      <c r="E25" s="45">
-        <f>(((D25-N2)/L4)*(C35/C24))/7850</f>
-        <v>1.1744443000129989</v>
-      </c>
-      <c r="F25" s="68"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="33">
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>20</v>
+      </c>
+      <c r="B32" s="58"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="20">
         <f>D20</f>
-        <v>189</v>
-      </c>
-      <c r="J25" s="78">
-        <v>20</v>
-      </c>
-      <c r="K25" s="79">
-        <f>AVERAGE(N24,O24,P24)</f>
-        <v>66.879999206142671</v>
-      </c>
-      <c r="L25" s="23">
-        <f>(LOG(E14)-LOG(K25))</f>
-        <v>1.9842979245431966</v>
-      </c>
-      <c r="N25" s="45">
-        <f>((I26-$D$18)/J26)*(1/$I$4)</f>
-        <v>55.460750853242331</v>
-      </c>
-      <c r="O25" s="45">
-        <f>((I26-$D$18)/J26)*(1/$L$4)</f>
-        <v>82.908163265306129</v>
-      </c>
-      <c r="P25" s="45">
-        <f>((I26-$D$18)/J26)*(1/$K$4)</f>
-        <v>33.23108384458078</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>20</v>
-      </c>
-      <c r="B26" s="82"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="33">
-        <f>D20</f>
-        <v>189</v>
-      </c>
-      <c r="E26" s="34">
-        <f>(((D26-N3)/L4)*(C35/C24))/7850</f>
-        <v>1.2251397374236319</v>
-      </c>
-      <c r="F26" s="68"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="33">
+        <v>30</v>
+      </c>
+      <c r="E32" s="21">
+        <f>(((D32-N3)/K4)*(C35/C30))/7850</f>
+        <v>0.75547392963672122</v>
+      </c>
+      <c r="F32" s="65"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="37"/>
+      <c r="N32" s="22">
+        <f t="shared" si="1"/>
+        <v>1.2788731659084325E-2</v>
+      </c>
+      <c r="O32" s="41">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>24</v>
+      </c>
+      <c r="B33" s="59"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="20">
         <f>D21</f>
-        <v>190</v>
-      </c>
-      <c r="J26" s="78">
-        <v>24</v>
-      </c>
-      <c r="K26" s="79">
-        <f>AVERAGE(N25,O25,P25)</f>
-        <v>57.199999321043073</v>
-      </c>
-      <c r="L26" s="23">
-        <f>(LOG(E15)-LOG(K26))</f>
-        <v>2.0544899569607171</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>24</v>
-      </c>
-      <c r="B27" s="84"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="33">
-        <f>D21</f>
-        <v>190</v>
-      </c>
-      <c r="E27" s="34">
-        <f>(((D27-N4)/L4)*(C35/C24))/7850</f>
-        <v>1.2333036368190275</v>
-      </c>
-      <c r="F27" s="72"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="64"/>
-      <c r="N27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="86"/>
-      <c r="B28" s="76"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="J28" s="41"/>
-      <c r="K28" s="87">
-        <f>AVERAGE(L23:L26)</f>
-        <v>2.3709477032243509</v>
-      </c>
-      <c r="L28" s="88"/>
-      <c r="N28" s="36">
-        <f t="shared" ref="N28:N33" si="1">$K$15/O28</f>
-        <v>83.546727815726129</v>
-      </c>
-      <c r="O28" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" s="57"/>
-      <c r="H29" s="21"/>
-      <c r="N29" s="36">
+        <v>40</v>
+      </c>
+      <c r="E33" s="21">
+        <f>(((D33-N4)/K4)*(C35/C30))/7850</f>
+        <v>0.97849440844453395</v>
+      </c>
+      <c r="F33" s="67"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="37"/>
+      <c r="N33" s="22">
         <f t="shared" si="1"/>
-        <v>8.3546727815726136</v>
-      </c>
-      <c r="O29" s="89">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>0</v>
-      </c>
-      <c r="B30" s="80">
-        <f>B18</f>
-        <v>1E-3</v>
-      </c>
-      <c r="C30" s="81">
-        <f>C18</f>
+        <v>1.2788731659084324E-3</v>
+      </c>
+      <c r="O33" s="41">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="50"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="54"/>
+      <c r="C35" s="42">
         <v>1000</v>
       </c>
-      <c r="D30" s="33">
-        <f>D18</f>
-        <v>151</v>
-      </c>
-      <c r="E30" s="34">
-        <f>(((D30-K5)/K4)*(C35/C30))/7850</f>
-        <v>0.39336745991429284</v>
-      </c>
-      <c r="F30" s="62">
-        <f>AVERAGE(E31:E33)</f>
-        <v>0.48537558565378935</v>
-      </c>
-      <c r="G30" s="63"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="90" t="s">
-        <v>48</v>
-      </c>
-      <c r="J30" s="46">
-        <f>(J15/POWER(10,K28))</f>
-        <v>3.5561636776282688</v>
-      </c>
-      <c r="N30" s="36">
-        <f t="shared" si="1"/>
-        <v>0.83546727815726129</v>
-      </c>
-      <c r="O30" s="89">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>10</v>
-      </c>
-      <c r="B31" s="82"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="33">
-        <f>D19</f>
-        <v>184</v>
-      </c>
-      <c r="E31" s="34">
-        <f>(((D31-N2)/K4)*(C35/C30))/7850</f>
-        <v>0.470738410639157</v>
-      </c>
-      <c r="F31" s="68"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="46"/>
-      <c r="N31" s="36">
-        <f t="shared" si="1"/>
-        <v>8.3546727815726127E-2</v>
-      </c>
-      <c r="O31" s="89">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>20</v>
-      </c>
-      <c r="B32" s="82"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="33">
-        <f>D20</f>
-        <v>189</v>
-      </c>
-      <c r="E32" s="34">
-        <f>(((D32-N3)/K4)*(C35/C30))/7850</f>
-        <v>0.49105805426386878</v>
-      </c>
-      <c r="F32" s="68"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="64"/>
-      <c r="N32" s="36">
-        <f t="shared" si="1"/>
-        <v>8.3546727815726127E-3</v>
-      </c>
-      <c r="O32" s="91">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>24</v>
-      </c>
-      <c r="B33" s="84"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="33">
-        <f>D21</f>
-        <v>190</v>
-      </c>
-      <c r="E33" s="34">
-        <f>(((D33-N4)/K4)*(C35/C30))/7850</f>
-        <v>0.49433029205834245</v>
-      </c>
-      <c r="F33" s="72"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="64"/>
-      <c r="N33" s="36">
-        <f t="shared" si="1"/>
-        <v>8.3546727815726133E-4</v>
-      </c>
-      <c r="O33" s="91">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="75"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="21"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="57"/>
-      <c r="C35" s="92">
-        <v>1000</v>
-      </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="93"/>
-      <c r="B36" s="94"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="95" t="s">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="43"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="96" t="s">
+      <c r="B37" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C37" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="97"/>
-      <c r="E37" s="98"/>
-      <c r="F37" s="42"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="95" t="s">
+      <c r="D37" s="46"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="25"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="99">
+      <c r="B38" s="48">
         <f>(D18*0.1)/20000</f>
-        <v>7.5500000000000003E-4</v>
-      </c>
-      <c r="D38" s="97"/>
-      <c r="E38" s="98"/>
-      <c r="F38" s="42"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="D38" s="46"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="25"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="99">
+      <c r="B39" s="48">
         <f>(D19*0.1)/20000</f>
-        <v>9.2000000000000014E-4</v>
-      </c>
-      <c r="D39" s="21" t="s">
+        <v>1E-4</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E39" s="98"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="100"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="E39" s="47"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="49"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="99">
+      <c r="B40" s="48">
         <f>(D20*0.1)/20000</f>
-        <v>9.4500000000000009E-4</v>
-      </c>
-      <c r="E40" s="98"/>
-      <c r="F40" s="42"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="E40" s="47"/>
+      <c r="F40" s="25"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="99">
+      <c r="B41" s="48">
         <f>(D21*0.1)/20000</f>
-        <v>9.5E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="F18:G21"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="F24:G27"/>
+    <mergeCell ref="A28:G28"/>
     <mergeCell ref="A34:G34"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="K28:L28"/>
@@ -2292,41 +2369,7 @@
     <mergeCell ref="F30:G33"/>
     <mergeCell ref="I30:I31"/>
     <mergeCell ref="J30:J31"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="F24:G27"/>
-    <mergeCell ref="A28:G28"/>
     <mergeCell ref="I28:J28"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="F18:G21"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <conditionalFormatting sqref="I15:I16">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
